--- a/DayTrader/design/2020_plan.xlsx
+++ b/DayTrader/design/2020_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="35" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="40" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="20200101" sheetId="25" r:id="rId1"/>
@@ -48,6 +48,12 @@
     <sheet name="20200608" sheetId="63" r:id="rId39"/>
     <sheet name="20200611" sheetId="64" r:id="rId40"/>
     <sheet name="20200612" sheetId="65" r:id="rId41"/>
+    <sheet name="20200615" sheetId="66" r:id="rId42"/>
+    <sheet name="20200616" sheetId="67" r:id="rId43"/>
+    <sheet name="20200617" sheetId="68" r:id="rId44"/>
+    <sheet name="20200619" sheetId="69" r:id="rId45"/>
+    <sheet name="20200622" sheetId="70" r:id="rId46"/>
+    <sheet name="20200623" sheetId="71" r:id="rId47"/>
   </sheets>
   <definedNames>
     <definedName name="Allowed_Lose_Ratio" localSheetId="0">'20200101'!$A$2</definedName>
@@ -91,13 +97,19 @@
     <definedName name="Allowed_Lose_Ratio" localSheetId="38">'20200608'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="39">'20200611'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="40">'20200612'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="41">'20200615'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="42">'20200616'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="43">'20200617'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="44">'20200619'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="45">'20200622'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="46">'20200623'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="120">
   <si>
     <t>Allowed Lose Ratio</t>
   </si>
@@ -508,6 +520,27 @@
   </si>
   <si>
     <t>MRNA-55</t>
+  </si>
+  <si>
+    <t>AAL-15.5</t>
+  </si>
+  <si>
+    <t>UNG-11.5</t>
+  </si>
+  <si>
+    <t>IQ-23</t>
+  </si>
+  <si>
+    <t>AAL-14</t>
+  </si>
+  <si>
+    <t>SHOP-815</t>
+  </si>
+  <si>
+    <t>INO-20</t>
+  </si>
+  <si>
+    <t>INO-16.5</t>
   </si>
 </sst>
 </file>
@@ -49760,7 +49793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -49938,7 +49971,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -51216,8 +51249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -51334,7 +51367,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="9">
-        <v>562</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>111</v>
@@ -51352,11 +51385,11 @@
         <v>2.36</v>
       </c>
       <c r="I6" s="11">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="J6" s="11">
         <f>G6*I6</f>
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="K6" s="12" t="str">
         <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
@@ -51380,21 +51413,21 @@
         <v>44001</v>
       </c>
       <c r="G7" s="9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H7" s="11">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="11">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ref="J7:J8" si="0">G7*I7</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -51405,30 +51438,30 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" s="10">
-        <v>43977</v>
+        <v>43994</v>
       </c>
       <c r="F8" s="10">
-        <v>44001</v>
+        <v>44008</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="11">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="I8" s="11">
-        <v>0.32</v>
+        <v>1.4</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="K8" s="12" t="str">
         <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Stop Lose!</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -51449,12 +51482,12 @@
       </c>
       <c r="J9" s="11">
         <f>SUM(J6:J8)</f>
-        <v>588</v>
+        <v>1120</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="9">
         <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>21</v>
@@ -51481,11 +51514,11 @@
       </c>
       <c r="J10" s="11">
         <f>C6+J9</f>
-        <v>1150</v>
+        <v>1219</v>
       </c>
       <c r="K10" s="12">
         <f>J10-H10</f>
-        <v>-21235</v>
+        <v>-21166</v>
       </c>
       <c r="L10" s="11">
         <f>J10-'20200612'!J10</f>
@@ -51634,11 +51667,11 @@
         <v>1.21</v>
       </c>
       <c r="I16" s="11">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="J16" s="11">
         <f>G16*I16</f>
-        <v>9100</v>
+        <v>8300</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="9"/>
@@ -51688,7 +51721,7 @@
       </c>
       <c r="J18" s="11">
         <f>SUM(J16:J17)</f>
-        <v>9100</v>
+        <v>8300</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="9"/>
@@ -51715,11 +51748,11 @@
       </c>
       <c r="J19" s="11">
         <f>C16+J18</f>
-        <v>11982</v>
+        <v>11182</v>
       </c>
       <c r="K19" s="12">
         <f>J19-H19</f>
-        <v>-12757</v>
+        <v>-13557</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -51759,11 +51792,11 @@
       </c>
       <c r="J21" s="11">
         <f>J10+J19</f>
-        <v>13132</v>
+        <v>12401</v>
       </c>
       <c r="K21" s="12">
         <f>J21-B21</f>
-        <v>-48408</v>
+        <v>-49139</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -52661,6 +52694,8882 @@
     </row>
     <row r="86" spans="12:12">
       <c r="L86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2608</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>330</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43992</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>600</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J9" si="0">G7*I7</f>
+        <v>90</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ref="J8" si="1">G8*I8</f>
+        <v>184</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>206.99999999999997</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>811</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>330</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <v>22385</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>3419</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-18966</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200615'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>82</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>8000</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>8000</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>8082</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-16657</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>61540</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>11501</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-50039</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>400</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>10</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>4000</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>4000</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>4077</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-65323</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>749</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>600</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>6000</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>6000</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>6749</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-3551</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>12693</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11">
+        <v>100</v>
+      </c>
+      <c r="I36" s="11">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>1300</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>21.02</v>
+      </c>
+      <c r="I37" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>1300</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>13993</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-6007</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>518</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>80</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>1040</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I42" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1040</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>1558</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-12542</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>21782</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-22618</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2608</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>330</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43992</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>600</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J9" si="0">G7*I7</f>
+        <v>90</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>206.99999999999997</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>811</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>330</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <v>22385</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>3419</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-18966</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200616'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>82</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>8000</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>8000</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>8082</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-16657</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>61540</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>11501</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-50039</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>400</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>3760</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>3760</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>3837</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-65563</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>680</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>6800</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>6800</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>6801</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-3499</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6164</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11">
+        <v>100</v>
+      </c>
+      <c r="I36" s="11">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>1300</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>700</v>
+      </c>
+      <c r="H37" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>6580</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>7880</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>14044</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-5956</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>518</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>80</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>1040</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I42" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1040</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>1558</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-12542</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>21885</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-22515</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2608</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>330</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43992</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>600</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J9" si="0">G7*I7</f>
+        <v>90</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>206.99999999999997</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>811</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>330</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>39400</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>3419</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-35981</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200617'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>82</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>8000</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>8000</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>8082</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-16657</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>61540</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>11501</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-50039</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>400</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>3760</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>3760</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>3837</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-65563</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>680</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>6800</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>6800</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>6801</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-3499</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6164</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11">
+        <v>100</v>
+      </c>
+      <c r="I36" s="11">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>1300</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>700</v>
+      </c>
+      <c r="H37" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>6580</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>7880</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>14044</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-5956</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>518</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>80</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>1040</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I42" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1040</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>1558</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-12542</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>21885</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-22515</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N85"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2416</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>210.00000000000003</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G7" s="9">
+        <v>200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7" si="0">G7*I7</f>
+        <v>184</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11">
+        <f>SUM(J6:J7)</f>
+        <v>394</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>210.00000000000003</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11">
+        <f>B9</f>
+        <v>39400</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="11">
+        <f>C6+J8</f>
+        <v>2810</v>
+      </c>
+      <c r="K9" s="12">
+        <f>J9-H9</f>
+        <v>-36590</v>
+      </c>
+      <c r="L9" s="11">
+        <f>J9-'20200619'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C11" s="9">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f>G11*I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f ca="1">IF(AND(F11&lt;&gt;"", I11/H11&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F11&lt;&gt;"", DAYS360(E11, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="11">
+        <f>SUM(J11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="11">
+        <f>C11+J12</f>
+        <v>75</v>
+      </c>
+      <c r="K13" s="12">
+        <f>J13-H13</f>
+        <v>-2925</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>228</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="11">
+        <f>G15*I15</f>
+        <v>8000</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I16" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J16" s="11">
+        <f>G16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11">
+        <f>SUM(J15:J16)</f>
+        <v>8000</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="11">
+        <f>C15+J17</f>
+        <v>8228</v>
+      </c>
+      <c r="K18" s="12">
+        <f>J18-H18</f>
+        <v>-16511</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12">
+        <f>B9+B18</f>
+        <v>61540</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="11">
+        <f>J9+J18</f>
+        <v>11038</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-B20</f>
+        <v>-50502</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4056</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I23" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J23" s="11">
+        <f>G23*I23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I24" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J24" s="11">
+        <f>G24*I24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="11">
+        <f>SUM(J23:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="11">
+        <f>C23+J25</f>
+        <v>4056</v>
+      </c>
+      <c r="K26" s="12">
+        <f>J26-B26</f>
+        <v>-65344</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" s="7" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6755</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="I30" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J30" s="11">
+        <f>G30*I30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="11">
+        <f>SUM(J30:J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="11">
+        <f>C30+J31</f>
+        <v>6755</v>
+      </c>
+      <c r="K32" s="12">
+        <f>J32-B32</f>
+        <v>-3545</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9">
+        <v>13031</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>100</v>
+      </c>
+      <c r="H34" s="11">
+        <v>100</v>
+      </c>
+      <c r="I34" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J34" s="11">
+        <f>G34*I34</f>
+        <v>1450</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="I35" s="11">
+        <v>9.81</v>
+      </c>
+      <c r="J35" s="11">
+        <f>G35*I35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="11">
+        <f>SUM(J34:J35)</f>
+        <v>1450</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="11">
+        <f>C34+J36</f>
+        <v>14481</v>
+      </c>
+      <c r="K37" s="12">
+        <f>J37-B37</f>
+        <v>-5519</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="9">
+        <v>518</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
+        <v>80</v>
+      </c>
+      <c r="H39" s="11">
+        <v>92</v>
+      </c>
+      <c r="I39" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J39" s="11">
+        <f>G39*I39</f>
+        <v>1160</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I40" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J40" s="11">
+        <f>G40*I40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="11">
+        <f>SUM(J39:J40)</f>
+        <v>1160</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="11">
+        <f>C39+J41</f>
+        <v>1678</v>
+      </c>
+      <c r="K42" s="12">
+        <f>J42-B42</f>
+        <v>-12422</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9">
+        <f>B32+B37+B42</f>
+        <v>44400</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="11">
+        <f>J32+J37+J41</f>
+        <v>22396</v>
+      </c>
+      <c r="K45" s="12">
+        <f>J45-B45</f>
+        <v>-22004</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>578</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>120</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G7" s="9">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7" si="0">G7*I7</f>
+        <v>1560</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G8" s="9">
+        <v>300</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ref="J8" si="1">G8*I8</f>
+        <v>426</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11">
+        <f>SUM(J6:J8)</f>
+        <v>2106</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>120</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11">
+        <f>B10</f>
+        <v>39400</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11">
+        <f>C6+J9</f>
+        <v>2684</v>
+      </c>
+      <c r="K10" s="12">
+        <f>J10-H10</f>
+        <v>-36716</v>
+      </c>
+      <c r="L10" s="11">
+        <f>J10-'20200622'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C12" s="9">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f>G12*I12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f ca="1">IF(AND(F12&lt;&gt;"", I12/H12&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F12&lt;&gt;"", DAYS360(E12, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11">
+        <f>SUM(J12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="11">
+        <f>C12+J13</f>
+        <v>75</v>
+      </c>
+      <c r="K14" s="12">
+        <f>J14-H14</f>
+        <v>-2925</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>228</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="11">
+        <f>G16*I16</f>
+        <v>8000</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I17" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11">
+        <f>SUM(J16:J17)</f>
+        <v>8000</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11">
+        <f>C16+J18</f>
+        <v>8228</v>
+      </c>
+      <c r="K19" s="12">
+        <f>J19-H19</f>
+        <v>-16511</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B10+B19</f>
+        <v>61540</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="11">
+        <f>J10+J19</f>
+        <v>10912</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-B21</f>
+        <v>-50628</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4056</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I24" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J24" s="11">
+        <f>G24*I24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I25" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="11">
+        <f>SUM(J24:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="11">
+        <f>C24+J26</f>
+        <v>4056</v>
+      </c>
+      <c r="K27" s="12">
+        <f>J27-B27</f>
+        <v>-65344</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6755</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="I31" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J31" s="11">
+        <f>G31*I31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="11">
+        <f>SUM(J31:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="11">
+        <f>C31+J32</f>
+        <v>6755</v>
+      </c>
+      <c r="K33" s="12">
+        <f>J33-B33</f>
+        <v>-3545</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13031</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>100</v>
+      </c>
+      <c r="H35" s="11">
+        <v>100</v>
+      </c>
+      <c r="I35" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="J35" s="11">
+        <f>G35*I35</f>
+        <v>1550</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="I36" s="11">
+        <v>9.81</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11">
+        <f>SUM(J35:J36)</f>
+        <v>1550</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="11">
+        <f>C35+J37</f>
+        <v>14581</v>
+      </c>
+      <c r="K38" s="12">
+        <f>J38-B38</f>
+        <v>-5419</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1681</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>92</v>
+      </c>
+      <c r="I40" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J40" s="11">
+        <f>G40*I40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I41" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11">
+        <f>SUM(J40:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="11">
+        <f>C40+J42</f>
+        <v>1681</v>
+      </c>
+      <c r="K43" s="12">
+        <f>J43-B43</f>
+        <v>-12419</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" s="7" customFormat="1">
+      <c r="A46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9">
+        <f>B33+B38+B43</f>
+        <v>44400</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="11">
+        <f>J33+J38+J42</f>
+        <v>21336</v>
+      </c>
+      <c r="K46" s="12">
+        <f>J46-B46</f>
+        <v>-23064</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>359</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>90</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44005</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G7" s="9">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>165</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44005</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44008</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>80</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I9" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="0">G9*I9</f>
+        <v>960</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G10" s="9">
+        <v>300</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>488.99999999999994</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f ca="1">IF(AND(F10&lt;&gt;"", I10/H10&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F10&lt;&gt;"", DAYS360(E10, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J6:J10)</f>
+        <v>1784</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>90</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11">
+        <f>B12</f>
+        <v>39400</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11">
+        <f>C6+J11</f>
+        <v>2143</v>
+      </c>
+      <c r="K12" s="12">
+        <f>J12-H12</f>
+        <v>-37257</v>
+      </c>
+      <c r="L12" s="11">
+        <f>J12-'20200623'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>G14*I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f ca="1">IF(AND(F14&lt;&gt;"", I14/H14&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F14&lt;&gt;"", DAYS360(E14, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(J14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11">
+        <f>C14+J15</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="12">
+        <f>J16-H16</f>
+        <v>-2925</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>228</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>8000</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J19" s="11">
+        <f>G19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11">
+        <f>SUM(J18:J19)</f>
+        <v>8000</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11">
+        <f>C18+J20</f>
+        <v>8228</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-H21</f>
+        <v>-16511</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B12+B21</f>
+        <v>61540</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11">
+        <f>J12+J21</f>
+        <v>10371</v>
+      </c>
+      <c r="K23" s="12">
+        <f>J23-B23</f>
+        <v>-51169</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4056</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I27" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J27" s="11">
+        <f>G27*I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11">
+        <f>SUM(J26:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>69400</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11">
+        <f>C26+J28</f>
+        <v>4056</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29-B29</f>
+        <v>-65344</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6755</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="I33" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J33" s="11">
+        <f>G33*I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11">
+        <f>SUM(J33:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="11">
+        <f>C33+J34</f>
+        <v>6755</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J35-B35</f>
+        <v>-3545</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <v>14506</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>100</v>
+      </c>
+      <c r="I37" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>9.32</v>
+      </c>
+      <c r="I38" s="11">
+        <v>9.81</v>
+      </c>
+      <c r="J38" s="11">
+        <f>G38*I38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11">
+        <f>SUM(J37:J38)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="11">
+        <f>C37+J39</f>
+        <v>14506</v>
+      </c>
+      <c r="K40" s="12">
+        <f>J40-B40</f>
+        <v>-5494</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1681</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>92</v>
+      </c>
+      <c r="I42" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="I43" s="11">
+        <v>16.28</v>
+      </c>
+      <c r="J43" s="11">
+        <f>G43*I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11">
+        <f>SUM(J42:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="11">
+        <f>C42+J44</f>
+        <v>1681</v>
+      </c>
+      <c r="K45" s="12">
+        <f>J45-B45</f>
+        <v>-12419</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" s="7" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B35+B40+B45</f>
+        <v>44400</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="11">
+        <f>J35+J40+J44</f>
+        <v>21261</v>
+      </c>
+      <c r="K48" s="12">
+        <f>J48-B48</f>
+        <v>-23139</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DayTrader/design/2020_plan.xlsx
+++ b/DayTrader/design/2020_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="40" activeTab="45"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="46" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="20200101" sheetId="25" r:id="rId1"/>
@@ -54,6 +54,11 @@
     <sheet name="20200619" sheetId="69" r:id="rId45"/>
     <sheet name="20200622" sheetId="70" r:id="rId46"/>
     <sheet name="20200623" sheetId="71" r:id="rId47"/>
+    <sheet name="20200629" sheetId="72" r:id="rId48"/>
+    <sheet name="20200630" sheetId="73" r:id="rId49"/>
+    <sheet name="20200701" sheetId="74" r:id="rId50"/>
+    <sheet name="20200702" sheetId="75" r:id="rId51"/>
+    <sheet name="20200703" sheetId="76" r:id="rId52"/>
   </sheets>
   <definedNames>
     <definedName name="Allowed_Lose_Ratio" localSheetId="0">'20200101'!$A$2</definedName>
@@ -103,13 +108,18 @@
     <definedName name="Allowed_Lose_Ratio" localSheetId="44">'20200619'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="45">'20200622'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="46">'20200623'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="47">'20200629'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="48">'20200630'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="49">'20200701'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="50">'20200702'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="51">'20200703'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="125">
   <si>
     <t>Allowed Lose Ratio</t>
   </si>
@@ -541,6 +551,21 @@
   </si>
   <si>
     <t>INO-16.5</t>
+  </si>
+  <si>
+    <t>INO-22</t>
+  </si>
+  <si>
+    <t>UNG-10.5</t>
+  </si>
+  <si>
+    <t>SPY-300</t>
+  </si>
+  <si>
+    <t>QQQ-245</t>
+  </si>
+  <si>
+    <t>INO-18</t>
   </si>
 </sst>
 </file>
@@ -55685,7 +55710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -58599,7 +58624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -58777,7 +58802,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -58811,7 +58836,7 @@
       </c>
       <c r="K8" s="12" t="str">
         <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -60056,7 +60081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -60234,7 +60259,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -60336,7 +60361,7 @@
       </c>
       <c r="K10" s="12" t="str">
         <f ca="1">IF(AND(F10&lt;&gt;"", I10/H10&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F10&lt;&gt;"", DAYS360(E10, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -61570,6 +61595,3022 @@
     </row>
     <row r="88" spans="12:12">
       <c r="L88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>111</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44007</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>420</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44011</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>300</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>600</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="0">G9*I9</f>
+        <v>700</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44011</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44012</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f ca="1">IF(AND(F10&lt;&gt;"", I10/H10&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F10&lt;&gt;"", DAYS360(E10, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J6:J10)</f>
+        <v>1861</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>100</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>39400</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11">
+        <f>B12</f>
+        <v>39400</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11">
+        <f>C6+J11</f>
+        <v>1972</v>
+      </c>
+      <c r="K12" s="12">
+        <f>J12-H12</f>
+        <v>-37428</v>
+      </c>
+      <c r="L12" s="11">
+        <f>J12-'20200629'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>G14*I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f ca="1">IF(AND(F14&lt;&gt;"", I14/H14&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F14&lt;&gt;"", DAYS360(E14, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(J14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11">
+        <f>C14+J15</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="12">
+        <f>J16-H16</f>
+        <v>-2925</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>228</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>6800.0000000000009</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J19" s="11">
+        <f>G19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11">
+        <f>SUM(J18:J19)</f>
+        <v>6800.0000000000009</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11">
+        <f>C18+J20</f>
+        <v>7028.0000000000009</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-H21</f>
+        <v>-17711</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B12+B21</f>
+        <v>61540</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11">
+        <f>J12+J21</f>
+        <v>9000</v>
+      </c>
+      <c r="K23" s="12">
+        <f>J23-B23</f>
+        <v>-52540</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I27" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J27" s="11">
+        <f>G27*I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11">
+        <f>SUM(J26:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11">
+        <f>C26+J28</f>
+        <v>56</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29-B29</f>
+        <v>-61344</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>715</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>700</v>
+      </c>
+      <c r="H33" s="11">
+        <v>9.02</v>
+      </c>
+      <c r="I33" s="11">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J33" s="11">
+        <f>G33*I33</f>
+        <v>6383.9999999999991</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11">
+        <f>SUM(J33:J33)</f>
+        <v>6383.9999999999991</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="11">
+        <f>C33+J34</f>
+        <v>7098.9999999999991</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J35-B35</f>
+        <v>-3201.0000000000009</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I37" s="11">
+        <v>10.55</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>16880</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="I38" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J38" s="11">
+        <f>G38*I38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11">
+        <f>SUM(J37:J38)</f>
+        <v>16880</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="11">
+        <f>C37+J39</f>
+        <v>16887</v>
+      </c>
+      <c r="K40" s="12">
+        <f>J40-B40</f>
+        <v>-3113</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>64</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>92</v>
+      </c>
+      <c r="I42" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>200</v>
+      </c>
+      <c r="H43" s="11">
+        <v>8.02</v>
+      </c>
+      <c r="I43" s="11">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J43" s="11">
+        <f>G43*I43</f>
+        <v>1823.9999999999998</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11">
+        <f>SUM(J42:J43)</f>
+        <v>1823.9999999999998</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="11">
+        <f>C42+J44</f>
+        <v>1887.9999999999998</v>
+      </c>
+      <c r="K45" s="12">
+        <f>J45-B45</f>
+        <v>-12212</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" s="7" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B35+B40+B45</f>
+        <v>44400</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="11">
+        <f>J35+J40+J44</f>
+        <v>25810</v>
+      </c>
+      <c r="K48" s="12">
+        <f>J48-B48</f>
+        <v>-18590</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1236</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44007</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>520</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44011</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>400</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44004</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>200</v>
+      </c>
+      <c r="H9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="0">G9*I9</f>
+        <v>520</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1490</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>50</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2726</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37274</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200630'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>6466</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>6466</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>6494</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-18245</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9220</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-52920</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>7495</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.02</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.77</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>7495</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2805</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>16960</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>16960</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>16967</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-3033</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>9.31</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.73</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1946</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1946</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2110</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-11990</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>26408</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-17992</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62900,6 +65941,4479 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1236</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>640</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>400</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>400</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="0">G9*I9</f>
+        <v>400</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1440</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2676</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37324</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200701'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>6466</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>6466</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>6494</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-18245</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9170</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-52970</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>7495</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.02</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.77</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>7495</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2805</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>16960</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>16960</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>16967</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-3033</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>9.31</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.73</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1946</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1946</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2110</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-11990</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>26408</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-17992</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1236</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="9">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>126</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>800</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>196</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>400</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="0">G9*I9</f>
+        <v>200</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1322</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>126</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2558</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37442</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200702'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>6466</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>6466</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>6494</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-18245</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9052</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-53088</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>366</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>800</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>7480</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>7480</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>7846</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2454</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.35</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>16560</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>16560</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>16567</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-3433</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>9.31</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1870</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1870</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2034</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-12066</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>26283</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-18117</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1236</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="9">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>126</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f ca="1">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>800</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>196</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>400</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="0">G9*I9</f>
+        <v>200</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f ca="1">IF(AND(F9&lt;&gt;"", I9/H9&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F9&lt;&gt;"", DAYS360(E9, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1322</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>126</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2558</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37442</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200703'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>6466</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>6466</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>6494</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-18245</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9052</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-53088</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>366</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>800</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>7480</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>7480</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>7846</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2454</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.35</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>16560</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>16560</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>16567</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-3433</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>9.31</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1870</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1870</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2034</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-12066</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>26283</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-18117</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>

--- a/DayTrader/design/2020_plan.xlsx
+++ b/DayTrader/design/2020_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="46" activeTab="51"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="20364" windowHeight="8964" firstSheet="50" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="20200101" sheetId="25" r:id="rId1"/>
@@ -59,6 +59,12 @@
     <sheet name="20200701" sheetId="74" r:id="rId50"/>
     <sheet name="20200702" sheetId="75" r:id="rId51"/>
     <sheet name="20200703" sheetId="76" r:id="rId52"/>
+    <sheet name="20200706" sheetId="77" r:id="rId53"/>
+    <sheet name="20200707" sheetId="78" r:id="rId54"/>
+    <sheet name="20200708" sheetId="79" r:id="rId55"/>
+    <sheet name="20200709" sheetId="80" r:id="rId56"/>
+    <sheet name="20200710" sheetId="81" r:id="rId57"/>
+    <sheet name="20200713" sheetId="82" r:id="rId58"/>
   </sheets>
   <definedNames>
     <definedName name="Allowed_Lose_Ratio" localSheetId="0">'20200101'!$A$2</definedName>
@@ -113,13 +119,19 @@
     <definedName name="Allowed_Lose_Ratio" localSheetId="49">'20200701'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="50">'20200702'!$A$2</definedName>
     <definedName name="Allowed_Lose_Ratio" localSheetId="51">'20200703'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="52">'20200706'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="53">'20200707'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="54">'20200708'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="55">'20200709'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="56">'20200710'!$A$2</definedName>
+    <definedName name="Allowed_Lose_Ratio" localSheetId="57">'20200713'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="132">
   <si>
     <t>Allowed Lose Ratio</t>
   </si>
@@ -567,6 +579,27 @@
   <si>
     <t>INO-18</t>
   </si>
+  <si>
+    <t>INO-19</t>
+  </si>
+  <si>
+    <t>AAPL-362</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>SPY-316</t>
+  </si>
+  <si>
+    <t>WMT-120</t>
+  </si>
+  <si>
+    <t>NIO-13</t>
+  </si>
+  <si>
+    <t>GSX-75</t>
+  </si>
 </sst>
 </file>
 
@@ -60081,7 +60114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -61606,8 +61639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -62677,7 +62710,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -63131,8 +63164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -64168,7 +64201,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -65945,8 +65978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="B25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -66123,7 +66156,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -66157,7 +66190,7 @@
       </c>
       <c r="K8" s="12" t="str">
         <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -66982,7 +67015,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -67436,8 +67469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="B34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -67614,7 +67647,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -67648,7 +67681,7 @@
       </c>
       <c r="K8" s="12" t="str">
         <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -68473,7 +68506,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -68927,8 +68960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
@@ -69105,7 +69138,7 @@
       </c>
       <c r="K7" s="12" t="str">
         <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -69139,7 +69172,7 @@
       </c>
       <c r="K8" s="12" t="str">
         <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
-        <v>Ok</v>
+        <v>Hold Too Long</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -69709,25 +69742,25 @@
         <v>37</v>
       </c>
       <c r="C32" s="9">
-        <v>366</v>
+        <v>814</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H32" s="11">
-        <v>9.3000000000000007</v>
+        <v>10.32</v>
       </c>
       <c r="I32" s="11">
-        <v>9.35</v>
+        <v>10.34</v>
       </c>
       <c r="J32" s="11">
         <f>G32*I32</f>
-        <v>7480</v>
+        <v>7238</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="9"/>
@@ -69750,7 +69783,7 @@
       </c>
       <c r="J33" s="11">
         <f>SUM(J32:J32)</f>
-        <v>7480</v>
+        <v>7238</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="9"/>
@@ -69775,11 +69808,11 @@
       </c>
       <c r="J34" s="11">
         <f>C32+J33</f>
-        <v>7846</v>
+        <v>8052</v>
       </c>
       <c r="K34" s="12">
         <f>J34-B34</f>
-        <v>-2454</v>
+        <v>-2248</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -69964,7 +69997,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -70086,11 +70119,9057 @@
       </c>
       <c r="J47" s="11">
         <f>J34+J39+J43</f>
-        <v>26283</v>
+        <v>26489</v>
       </c>
       <c r="K47" s="12">
         <f>J47-B47</f>
-        <v>-18117</v>
+        <v>-17911</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView topLeftCell="B34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>642</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="9">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>80</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K11" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44018</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G7" s="9">
+        <v>200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>126</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>1320</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="11">
+        <f>G9*I9</f>
+        <v>90</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44018</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G10" s="9">
+        <v>400</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="J10" s="11">
+        <f>G10*I10</f>
+        <v>388</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F11" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G11" s="9">
+        <v>300</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" ref="J11" si="1">G11*I11</f>
+        <v>390</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="11">
+        <f>SUM(J6:J11)</f>
+        <v>2394</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>80</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="7" customFormat="1">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11">
+        <f>B13</f>
+        <v>40000</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="11">
+        <f>C6+J12</f>
+        <v>3036</v>
+      </c>
+      <c r="K13" s="12">
+        <f>J13-H13</f>
+        <v>-36964</v>
+      </c>
+      <c r="L13" s="11">
+        <f>J13-'20200706'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C15" s="9">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f>G15*I15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f ca="1">IF(AND(F15&lt;&gt;"", I15/H15&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F15&lt;&gt;"", DAYS360(E15, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="11">
+        <f>SUM(J15:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="11">
+        <f>C15+J16</f>
+        <v>75</v>
+      </c>
+      <c r="K17" s="12">
+        <f>J17-H17</f>
+        <v>-2925</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J19" s="11">
+        <f>G19*I19</f>
+        <v>6466</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I20" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J20" s="11">
+        <f>G20*I20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11">
+        <f>SUM(J19:J20)</f>
+        <v>6466</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="11">
+        <f>C19+J21</f>
+        <v>6494</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-H22</f>
+        <v>-18245</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B13+B22</f>
+        <v>62140</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="11">
+        <f>J13+J22</f>
+        <v>9530</v>
+      </c>
+      <c r="K24" s="12">
+        <f>J24-B24</f>
+        <v>-52610</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I27" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J27" s="11">
+        <f>G27*I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I28" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J28" s="11">
+        <f>G28*I28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="11">
+        <f>SUM(J27:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" s="7" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="11">
+        <f>C27+J29</f>
+        <v>56</v>
+      </c>
+      <c r="K30" s="12">
+        <f>J30-B30</f>
+        <v>-61344</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>800</v>
+      </c>
+      <c r="H34" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I34" s="11">
+        <v>10.55</v>
+      </c>
+      <c r="J34" s="11">
+        <f>G34*I34</f>
+        <v>8440</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="11">
+        <f>SUM(J34:J34)</f>
+        <v>8440</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="11">
+        <f>C34+J35</f>
+        <v>8450</v>
+      </c>
+      <c r="K36" s="12">
+        <f>J36-B36</f>
+        <v>-1850</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8672</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>800</v>
+      </c>
+      <c r="H38" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I38" s="11">
+        <v>10.25</v>
+      </c>
+      <c r="J38" s="11">
+        <f>G38*I38</f>
+        <v>8200</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="I39" s="11">
+        <v>10.55</v>
+      </c>
+      <c r="J39" s="11">
+        <f>G39*I39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="11">
+        <f>SUM(J38:J39)</f>
+        <v>8200</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="11">
+        <f>C38+J40</f>
+        <v>16872</v>
+      </c>
+      <c r="K41" s="12">
+        <f>J41-B41</f>
+        <v>-3128</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="9">
+        <v>164</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>92</v>
+      </c>
+      <c r="I43" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J43" s="11">
+        <f>G43*I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
+        <v>200</v>
+      </c>
+      <c r="H44" s="11">
+        <v>9.31</v>
+      </c>
+      <c r="I44" s="11">
+        <v>10.55</v>
+      </c>
+      <c r="J44" s="11">
+        <f>G44*I44</f>
+        <v>2110</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="11">
+        <f>SUM(J43:J44)</f>
+        <v>2110</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" s="7" customFormat="1">
+      <c r="A46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="11">
+        <f>C43+J45</f>
+        <v>2274</v>
+      </c>
+      <c r="K46" s="12">
+        <f>J46-B46</f>
+        <v>-11826</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" s="7" customFormat="1">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="9">
+        <f>B36+B41+B46</f>
+        <v>44400</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="11">
+        <f>J36+J41+J45</f>
+        <v>27432</v>
+      </c>
+      <c r="K49" s="12">
+        <f>J49-B49</f>
+        <v>-16968</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="12:12">
+      <c r="L89" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2088</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="9">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>40</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K10" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>700</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>574</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>300</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44018</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>400</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J9" s="11">
+        <f>G9*I9</f>
+        <v>455.99999999999994</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G10" s="9">
+        <v>300</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10" si="1">G10*I10</f>
+        <v>90</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J6:J10)</f>
+        <v>1160.33</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>40</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11">
+        <f>B12</f>
+        <v>40000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11">
+        <f>C6+J11</f>
+        <v>3248.33</v>
+      </c>
+      <c r="K12" s="12">
+        <f>J12-H12</f>
+        <v>-36751.67</v>
+      </c>
+      <c r="L12" s="11">
+        <f>J12-'20200707'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>G14*I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f ca="1">IF(AND(F14&lt;&gt;"", I14/H14&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F14&lt;&gt;"", DAYS360(E14, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(J14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11">
+        <f>C14+J15</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="12">
+        <f>J16-H16</f>
+        <v>-2925</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>6466</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J19" s="11">
+        <f>G19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11">
+        <f>SUM(J18:J19)</f>
+        <v>6466</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11">
+        <f>C18+J20</f>
+        <v>6494</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-H21</f>
+        <v>-18245</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B12+B21</f>
+        <v>62140</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11">
+        <f>J12+J21</f>
+        <v>9742.33</v>
+      </c>
+      <c r="K23" s="12">
+        <f>J23-B23</f>
+        <v>-52397.67</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I27" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J27" s="11">
+        <f>G27*I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11">
+        <f>SUM(J26:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11">
+        <f>C26+J28</f>
+        <v>56</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29-B29</f>
+        <v>-61344</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>176</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>800</v>
+      </c>
+      <c r="H33" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I33" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="J33" s="11">
+        <f>G33*I33</f>
+        <v>8816</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11">
+        <f>SUM(J33:J33)</f>
+        <v>8816</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="11">
+        <f>C33+J34</f>
+        <v>8992</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J35-B35</f>
+        <v>-1308</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <v>919</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>800</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I37" s="11">
+        <v>10.32</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>8256</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>700</v>
+      </c>
+      <c r="H38" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I38" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="J38" s="11">
+        <f>G38*I38</f>
+        <v>7714</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11">
+        <f>SUM(J37:J38)</f>
+        <v>15970</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="11">
+        <f>C37+J39</f>
+        <v>16889</v>
+      </c>
+      <c r="K40" s="12">
+        <f>J40-B40</f>
+        <v>-3111</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>272</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>92</v>
+      </c>
+      <c r="I42" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>200</v>
+      </c>
+      <c r="H43" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="I43" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="J43" s="11">
+        <f>G43*I43</f>
+        <v>2204</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11">
+        <f>SUM(J42:J43)</f>
+        <v>2204</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="11">
+        <f>C42+J44</f>
+        <v>2476</v>
+      </c>
+      <c r="K45" s="12">
+        <f>J45-B45</f>
+        <v>-11624</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" s="7" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B35+B40+B45</f>
+        <v>44400</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="11">
+        <f>J35+J40+J44</f>
+        <v>28085</v>
+      </c>
+      <c r="K48" s="12">
+        <f>J48-B48</f>
+        <v>-16315</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2191</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44014</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="9">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>24</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K10" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>700</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>441</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>300</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44018</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="9">
+        <v>400</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="11">
+        <f>G9*I9</f>
+        <v>76</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G10" s="9">
+        <v>300</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5.39</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10" si="1">G10*I10</f>
+        <v>30</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(J6:J10)</f>
+        <v>571.32999999999993</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>24</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11">
+        <f>B12</f>
+        <v>40000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11">
+        <f>C6+J11</f>
+        <v>2762.33</v>
+      </c>
+      <c r="K12" s="12">
+        <f>J12-H12</f>
+        <v>-37237.67</v>
+      </c>
+      <c r="L12" s="11">
+        <f>J12-'20200708'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>G14*I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f ca="1">IF(AND(F14&lt;&gt;"", I14/H14&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F14&lt;&gt;"", DAYS360(E14, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(J14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11">
+        <f>C14+J15</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="12">
+        <f>J16-H16</f>
+        <v>-2925</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>6466</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J19" s="11">
+        <f>G19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11">
+        <f>SUM(J18:J19)</f>
+        <v>6466</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11">
+        <f>C18+J20</f>
+        <v>6494</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-H21</f>
+        <v>-18245</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B12+B21</f>
+        <v>62140</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11">
+        <f>J12+J21</f>
+        <v>9256.33</v>
+      </c>
+      <c r="K23" s="12">
+        <f>J23-B23</f>
+        <v>-52883.67</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I27" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J27" s="11">
+        <f>G27*I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11">
+        <f>SUM(J26:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11">
+        <f>C26+J28</f>
+        <v>56</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29-B29</f>
+        <v>-61344</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>176</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>800</v>
+      </c>
+      <c r="H33" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I33" s="11">
+        <v>10.54</v>
+      </c>
+      <c r="J33" s="11">
+        <f>G33*I33</f>
+        <v>8432</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11">
+        <f>SUM(J33:J33)</f>
+        <v>8432</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="11">
+        <f>C33+J34</f>
+        <v>8608</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J35-B35</f>
+        <v>-1692</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <v>919</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>800</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I37" s="11">
+        <v>10.32</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>8256</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>700</v>
+      </c>
+      <c r="H38" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>10.54</v>
+      </c>
+      <c r="J38" s="11">
+        <f>G38*I38</f>
+        <v>7377.9999999999991</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11">
+        <f>SUM(J37:J38)</f>
+        <v>15634</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="11">
+        <f>C37+J39</f>
+        <v>16553</v>
+      </c>
+      <c r="K40" s="12">
+        <f>J40-B40</f>
+        <v>-3447</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>272</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>92</v>
+      </c>
+      <c r="I42" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
+        <v>200</v>
+      </c>
+      <c r="H43" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="I43" s="11">
+        <v>10.54</v>
+      </c>
+      <c r="J43" s="11">
+        <f>G43*I43</f>
+        <v>2108</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11">
+        <f>SUM(J42:J43)</f>
+        <v>2108</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="11">
+        <f>C42+J44</f>
+        <v>2380</v>
+      </c>
+      <c r="K45" s="12">
+        <f>J45-B45</f>
+        <v>-11720</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" s="7" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B35+B40+B45</f>
+        <v>44400</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="11">
+        <f>J35+J40+J44</f>
+        <v>27269</v>
+      </c>
+      <c r="K48" s="12">
+        <f>J48-B48</f>
+        <v>-17131</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N86"/>
+  <sheetViews>
+    <sheetView topLeftCell="B28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>981</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44020</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>150</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K8" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>900</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44021</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ref="J8" si="1">G8*I8</f>
+        <v>178</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11">
+        <f>SUM(J6:J8)</f>
+        <v>1228</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>150</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11">
+        <f>B10</f>
+        <v>40000</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11">
+        <f>C6+J9</f>
+        <v>2209</v>
+      </c>
+      <c r="K10" s="12">
+        <f>J10-H10</f>
+        <v>-37791</v>
+      </c>
+      <c r="L10" s="11">
+        <f>J10-'20200709'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C12" s="9">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f>G12*I12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f ca="1">IF(AND(F12&lt;&gt;"", I12/H12&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F12&lt;&gt;"", DAYS360(E12, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11">
+        <f>SUM(J12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="11">
+        <f>C12+J13</f>
+        <v>75</v>
+      </c>
+      <c r="K14" s="12">
+        <f>J14-H14</f>
+        <v>-2925</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>10600</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="J16" s="11">
+        <f>G16*I16</f>
+        <v>6466</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I17" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11">
+        <f>SUM(J16:J17)</f>
+        <v>6466</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11">
+        <f>C16+J18</f>
+        <v>6494</v>
+      </c>
+      <c r="K19" s="12">
+        <f>J19-H19</f>
+        <v>-18245</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B10+B19</f>
+        <v>62140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="11">
+        <f>J10+J19</f>
+        <v>8703</v>
+      </c>
+      <c r="K21" s="12">
+        <f>J21-B21</f>
+        <v>-53437</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9">
+        <v>56</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I24" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J24" s="11">
+        <f>G24*I24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I25" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="11">
+        <f>SUM(J24:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="11">
+        <f>C24+J26</f>
+        <v>56</v>
+      </c>
+      <c r="K27" s="12">
+        <f>J27-B27</f>
+        <v>-61344</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9">
+        <v>176</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>800</v>
+      </c>
+      <c r="H31" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I31" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J31" s="11">
+        <f>G31*I31</f>
+        <v>7928</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="11">
+        <f>SUM(J31:J31)</f>
+        <v>7928</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="11">
+        <f>C31+J32</f>
+        <v>8104</v>
+      </c>
+      <c r="K33" s="12">
+        <f>J33-B33</f>
+        <v>-2196</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9">
+        <v>280</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I35" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="J35" s="11">
+        <f>G35*I35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1550</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.78</v>
+      </c>
+      <c r="I36" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11">
+        <f>SUM(J35:J36)</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="11">
+        <f>C35+J37</f>
+        <v>15640.5</v>
+      </c>
+      <c r="K38" s="12">
+        <f>J38-B38</f>
+        <v>-4359.5</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9">
+        <v>272</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>92</v>
+      </c>
+      <c r="I40" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J40" s="11">
+        <f>G40*I40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>200</v>
+      </c>
+      <c r="H41" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="I41" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>1982</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11">
+        <f>SUM(J40:J41)</f>
+        <v>1982</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="11">
+        <f>C40+J42</f>
+        <v>2254</v>
+      </c>
+      <c r="K43" s="12">
+        <f>J43-B43</f>
+        <v>-11846</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" s="7" customFormat="1">
+      <c r="A46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9">
+        <f>B33+B38+B43</f>
+        <v>44400</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="11">
+        <f>J33+J38+J42</f>
+        <v>25726.5</v>
+      </c>
+      <c r="K46" s="12">
+        <f>J46-B46</f>
+        <v>-18673.5</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>716</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44020</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K9" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44022</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G7" s="9">
+        <v>200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>132</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>1060</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="1">G9*I9</f>
+        <v>260</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1502</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>50</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2218</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37782</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200710'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1708</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>8200</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>5740</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>5740</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>7448</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-17291</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9666</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-52474</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>176</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>800</v>
+      </c>
+      <c r="H32" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>7928</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>7928</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>8104</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2196</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>280</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>1550</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10.78</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>15640.5</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-4359.5</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>272</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1982</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1982</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2254</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-11846</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>25726.5</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-18673.5</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.21875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="49.2" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="K3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>716</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44020</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="11">
+        <f>G6*I6</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K9" ca="1" si="0">IF(AND(F6&lt;&gt;"", I6/H6&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F6&lt;&gt;"", DAYS360(E6, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44022</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G7" s="9">
+        <v>200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="J7" s="11">
+        <f>G7*I7</f>
+        <v>132</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f ca="1">IF(AND(F7&lt;&gt;"", I7/H7&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F7&lt;&gt;"", DAYS360(E7, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Ok</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44013</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44036</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="J8" s="11">
+        <f>G8*I8</f>
+        <v>1060</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f ca="1">IF(AND(F8&lt;&gt;"", I8/H8&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F8&lt;&gt;"", DAYS360(E8, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Hold Too Long</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44022</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44029</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="1">G9*I9</f>
+        <v>260</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(J6:J9)</f>
+        <v>1502</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f>SUMIF(F6:F6, "&lt;&gt;",J6:J6)</f>
+        <v>50</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>B11</f>
+        <v>40000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <f>C6+J10</f>
+        <v>2218</v>
+      </c>
+      <c r="K11" s="12">
+        <f>J11-H11</f>
+        <v>-37782</v>
+      </c>
+      <c r="L11" s="11">
+        <f>J11-'20200713'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="9">
+        <v>27067767</v>
+      </c>
+      <c r="C13" s="9">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43899</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>G13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f ca="1">IF(AND(F13&lt;&gt;"", I13/H13&lt;=Allowed_Lose_Ratio),"Stop Lose!",IF(AND(F13&lt;&gt;"", DAYS360(E13, TODAY())&gt;2), "Hold Too Long", "Ok"))</f>
+        <v>Stop Lose!</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f>SUM(J13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="9">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C13+J14</f>
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <f>J15-H15</f>
+        <v>-2925</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1708</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>8200</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="11">
+        <f>G17*I17</f>
+        <v>5740</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="J18" s="11">
+        <f>G18*I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(J17:J18)</f>
+        <v>5740</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
+        <v>24739</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11">
+        <f>C17+J19</f>
+        <v>7448</v>
+      </c>
+      <c r="K20" s="12">
+        <f>J20-H20</f>
+        <v>-17291</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B11+B20</f>
+        <v>62140</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J11+J20</f>
+        <v>9666</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22-B22</f>
+        <v>-52474</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="J25" s="11">
+        <f>G25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>10.02</v>
+      </c>
+      <c r="I26" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J26" s="11">
+        <f>G26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J25:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9">
+        <v>61400</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="11">
+        <f>C25+J27</f>
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28-B28</f>
+        <v>-61344</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>176</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>800</v>
+      </c>
+      <c r="H32" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J32" s="11">
+        <f>G32*I32</f>
+        <v>7928</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11">
+        <f>SUM(J32:J32)</f>
+        <v>7928</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10300</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="11">
+        <f>C32+J33</f>
+        <v>8104</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J34-B34</f>
+        <v>-2196</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9">
+        <v>280</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10.56</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="J36" s="11">
+        <f>G36*I36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>1550</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10.78</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J37" s="11">
+        <f>G37*I37</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J36:J37)</f>
+        <v>15360.5</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>C36+J38</f>
+        <v>15640.5</v>
+      </c>
+      <c r="K39" s="12">
+        <f>J39-B39</f>
+        <v>-4359.5</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>272</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>92</v>
+      </c>
+      <c r="I41" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="J41" s="11">
+        <f>G41*I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9.91</v>
+      </c>
+      <c r="J42" s="11">
+        <f>G42*I42</f>
+        <v>1982</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11">
+        <f>SUM(J41:J42)</f>
+        <v>1982</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="11">
+        <f>C41+J43</f>
+        <v>2254</v>
+      </c>
+      <c r="K44" s="12">
+        <f>J44-B44</f>
+        <v>-11846</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <f>B34+B39+B44</f>
+        <v>44400</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="11">
+        <f>J34+J39+J43</f>
+        <v>25726.5</v>
+      </c>
+      <c r="K47" s="12">
+        <f>J47-B47</f>
+        <v>-18673.5</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
